--- a/data/instances/epsp/demo/1x(3+1).xlsx
+++ b/data/instances/epsp/demo/1x(3+1).xlsx
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
